--- a/A02SZL1_Orca Pricing Report.xlsx
+++ b/A02SZL1_Orca Pricing Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\5.-LIGHTGIG\1.-TRABAJOS ONY\30.-A02SZL1 (F2) (ALABAMA)\6.- REVISION CONSTRUCCION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C67A3A-E6DA-46AB-8859-C3C965DD0471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CDFA2B-A5E3-43A9-A244-3127393B1FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,6 @@
     <t>Pricing Report</t>
   </si>
   <si>
-    <t>Generated: 12/04/2024, 01:52 PM</t>
-  </si>
-  <si>
     <t>RQST By: RUIZ DAINA</t>
   </si>
   <si>
@@ -171,9 +168,6 @@
     <t>ENGINEERING</t>
   </si>
   <si>
-    <t>86.23 HRS</t>
-  </si>
-  <si>
     <t>TOTAL ENGINEERING</t>
   </si>
   <si>
@@ -412,6 +406,12 @@
   </si>
   <si>
     <t>ED</t>
+  </si>
+  <si>
+    <t>Generated: 12/04/2024, 02:28 PM</t>
+  </si>
+  <si>
+    <t>86.36 HRS</t>
   </si>
 </sst>
 </file>
@@ -737,7 +737,7 @@
   <dimension ref="A1:G242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="I6:J7"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,67 +749,67 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>12</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -849,7 +849,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -881,7 +881,7 @@
         <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -889,7 +889,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>151</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -929,27 +929,27 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>15.6</v>
+        <v>16.751999999999999</v>
       </c>
       <c r="D17">
-        <v>325</v>
+        <v>349</v>
       </c>
       <c r="E17">
         <v>0.37</v>
       </c>
       <c r="F17">
-        <v>120.25</v>
+        <v>129.13</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>404</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -969,7 +969,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>507</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1049,7 +1049,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1169,13 +1169,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1183,18 +1183,18 @@
         <v>0</v>
       </c>
       <c r="B30">
-        <v>918.81600000000003</v>
+        <v>919.96799999999996</v>
       </c>
       <c r="E30" s="1">
-        <v>9772.1299999999992</v>
+        <v>9781.01</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" t="s">
         <v>35</v>
-      </c>
-      <c r="D31" t="s">
-        <v>36</v>
       </c>
       <c r="E31">
         <v>35.5</v>
@@ -1205,35 +1205,35 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D32">
-        <v>14703.68</v>
+        <v>14712.56</v>
       </c>
       <c r="E32">
         <v>0.05</v>
       </c>
       <c r="F32">
-        <v>735.18</v>
+        <v>735.63</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
         <v>38</v>
       </c>
-      <c r="B33" t="s">
-        <v>39</v>
-      </c>
       <c r="G33" s="1">
-        <v>15438.86</v>
+        <v>15448.19</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" t="s">
         <v>40</v>
-      </c>
-      <c r="D34" t="s">
-        <v>41</v>
       </c>
       <c r="E34">
         <v>157.88999999999999</v>
@@ -1244,10 +1244,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" t="s">
         <v>42</v>
-      </c>
-      <c r="D35" t="s">
-        <v>43</v>
       </c>
       <c r="E35">
         <v>157.88999999999999</v>
@@ -1258,10 +1258,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G36" s="1">
         <v>21931.01</v>
@@ -1269,59 +1269,59 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" s="1">
-        <v>116837.18</v>
+        <v>117058.22</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G38" s="1">
-        <v>116837.18</v>
+        <v>117058.22</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D39" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="E39">
         <v>137.91999999999999</v>
       </c>
       <c r="F39" s="1">
-        <v>11892.43</v>
+        <v>11911.38</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G40" s="1">
-        <v>11892.43</v>
+        <v>11911.38</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F41" s="1">
-        <v>166099.48000000001</v>
+        <v>166348.79</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F42" s="1">
         <v>20409</v>
@@ -1329,18 +1329,18 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G43" s="1">
-        <v>186508.48</v>
+        <v>186757.79</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D44">
         <v>138.9</v>
@@ -1348,15 +1348,15 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D45">
-        <v>86.23</v>
+        <v>86.36</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1364,67 +1364,67 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" t="s">
         <v>9</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>10</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>11</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>12</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>13</v>
-      </c>
-      <c r="F55" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>240</v>
       </c>
       <c r="E56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -1444,7 +1444,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1456,7 +1456,7 @@
         <v>14</v>
       </c>
       <c r="E57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -1464,7 +1464,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>4</v>
       </c>
       <c r="E59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1516,7 +1516,7 @@
         <v>33065</v>
       </c>
       <c r="E60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1544,7 +1544,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1564,7 +1564,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1584,7 +1584,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1604,7 +1604,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1644,7 +1644,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1664,7 +1664,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1684,7 +1684,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1704,13 +1704,13 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -1726,10 +1726,10 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D72" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E72">
         <v>35.5</v>
@@ -1740,7 +1740,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D73">
         <v>106864.57</v>
@@ -1754,10 +1754,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>37</v>
+      </c>
+      <c r="B74" t="s">
         <v>38</v>
-      </c>
-      <c r="B74" t="s">
-        <v>39</v>
       </c>
       <c r="G74" s="1">
         <v>112207.8</v>
@@ -1765,10 +1765,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D75" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E75">
         <v>157.88999999999999</v>
@@ -1779,10 +1779,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D76" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E76">
         <v>157.88999999999999</v>
@@ -1793,10 +1793,10 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B77" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G77" s="1">
         <v>298700.19</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F78">
         <v>765.6</v>
@@ -1812,10 +1812,10 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B79" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G79">
         <v>765.6</v>
@@ -1823,10 +1823,10 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D80" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E80">
         <v>137.91999999999999</v>
@@ -1837,10 +1837,10 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B81" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G81" s="1">
         <v>30485.62</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F82" s="1">
         <v>442159.2</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F83" s="1">
         <v>99954</v>
@@ -1864,10 +1864,10 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B84" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G84" s="1">
         <v>542113.19999999995</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D85">
         <v>1891.82</v>
@@ -1883,7 +1883,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D86">
         <v>221.04</v>
@@ -1891,7 +1891,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -1899,67 +1899,67 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1</v>
+        <v>127</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" t="s">
         <v>9</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>10</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>11</v>
       </c>
-      <c r="D96" t="s">
+      <c r="E96" t="s">
         <v>12</v>
       </c>
-      <c r="E96" t="s">
+      <c r="F96" t="s">
         <v>13</v>
-      </c>
-      <c r="F96" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>9</v>
       </c>
       <c r="E97" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>1529</v>
       </c>
       <c r="E98" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -1999,13 +1999,13 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -2021,10 +2021,10 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>37</v>
+      </c>
+      <c r="B101" t="s">
         <v>38</v>
-      </c>
-      <c r="B101" t="s">
-        <v>39</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -2032,10 +2032,10 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D102" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E102">
         <v>157.88999999999999</v>
@@ -2046,10 +2046,10 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D103" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E103">
         <v>157.88999999999999</v>
@@ -2060,10 +2060,10 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B104" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F105" s="1">
         <v>10236.370000000001</v>
@@ -2079,10 +2079,10 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B106" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G106" s="1">
         <v>10236.370000000001</v>
@@ -2090,10 +2090,10 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D107" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E107">
         <v>137.91999999999999</v>
@@ -2104,10 +2104,10 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B108" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G108">
         <v>924.34</v>
@@ -2115,7 +2115,7 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F109" s="1">
         <v>11160.71</v>
@@ -2123,7 +2123,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F110" s="1">
         <v>1016</v>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B111" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G111" s="1">
         <v>12176.71</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -2150,7 +2150,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D113">
         <v>6.7</v>
@@ -2158,7 +2158,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -2166,64 +2166,64 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>1</v>
+        <v>127</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>72</v>
+      </c>
+      <c r="B123" t="s">
+        <v>73</v>
+      </c>
+      <c r="C123" t="s">
         <v>74</v>
       </c>
-      <c r="B123" t="s">
+      <c r="D123" t="s">
         <v>75</v>
-      </c>
-      <c r="C123" t="s">
-        <v>76</v>
-      </c>
-      <c r="D123" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B124" s="1">
-        <v>740798.39</v>
+        <v>741047.7</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -2237,21 +2237,21 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B125" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C125" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D125" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>740798.39</v>
+        <v>741047.7</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -2265,7 +2265,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -2273,47 +2273,47 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C128">
-        <v>6116.86</v>
+        <v>6118.0119999999997</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C129" s="2">
-        <v>127839.15</v>
+        <v>128060.19</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C130" s="2">
-        <v>43302.39</v>
+        <v>43321.34</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C131" s="2">
-        <v>740798.39</v>
+        <v>741047.7</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C132" s="2">
-        <v>740798.39</v>
+        <v>741047.7</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B133">
         <v>2030.72</v>
@@ -2321,15 +2321,15 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B134">
-        <v>313.97000000000003</v>
+        <v>314.10000000000002</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -2337,7 +2337,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -2345,67 +2345,67 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>1</v>
+        <v>127</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -2422,18 +2422,18 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B150" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C150" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C151">
         <v>151</v>
@@ -2447,27 +2447,27 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B156">
         <v>8</v>
@@ -2481,7 +2481,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B157">
         <v>12</v>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -2509,21 +2509,21 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B159">
         <v>48</v>
       </c>
       <c r="C159">
-        <v>625</v>
+        <v>649</v>
       </c>
       <c r="D159">
-        <v>30</v>
+        <v>31.152000000000001</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B160">
         <v>24</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B161">
         <v>72</v>
@@ -2551,7 +2551,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B162">
         <v>144</v>
@@ -2565,7 +2565,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B163">
         <v>24</v>
@@ -2579,7 +2579,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B164">
         <v>576</v>
@@ -2593,7 +2593,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B165">
         <v>48</v>
@@ -2607,7 +2607,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B166">
         <v>144</v>
@@ -2621,7 +2621,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B167">
         <v>432</v>
@@ -2635,7 +2635,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B168">
         <v>72</v>
@@ -2649,7 +2649,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B169">
         <v>48</v>
@@ -2663,7 +2663,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B170">
         <v>72</v>
@@ -2677,7 +2677,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B171">
         <v>144</v>
@@ -2691,7 +2691,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B172">
         <v>144</v>
@@ -2705,121 +2705,121 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B173" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C174">
-        <v>82757</v>
+        <v>82781</v>
       </c>
       <c r="D174">
-        <v>6116.56</v>
+        <v>6117.7120000000004</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>1</v>
+        <v>127</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>1</v>
+        <v>127</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -2827,7 +2827,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -2835,7 +2835,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B196">
         <v>0</v>
@@ -2848,12 +2848,12 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B199">
         <v>0</v>
@@ -2861,7 +2861,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B200">
         <v>0</v>
@@ -2869,7 +2869,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B201">
         <v>0</v>
@@ -2882,12 +2882,12 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B204">
         <v>0</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B205">
         <v>0</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B206">
         <v>0</v>
@@ -2916,12 +2916,12 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B209">
         <v>0</v>
@@ -2929,7 +2929,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B210">
         <v>0</v>
@@ -2937,7 +2937,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B211">
         <v>0</v>
@@ -2950,12 +2950,12 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B214">
         <v>0</v>
@@ -2963,7 +2963,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B215">
         <v>0</v>
@@ -2971,7 +2971,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B216">
         <v>0</v>
@@ -2984,12 +2984,12 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B219" s="1">
         <v>20409</v>
@@ -2997,7 +2997,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B220" s="1">
         <v>99954</v>
@@ -3005,7 +3005,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B221" s="1">
         <v>1016</v>
@@ -3018,12 +3018,12 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
@@ -3033,12 +3033,12 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
@@ -3048,74 +3048,74 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>1</v>
+        <v>127</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
+        <v>115</v>
+      </c>
+      <c r="B236" t="s">
+        <v>116</v>
+      </c>
+      <c r="C236" t="s">
         <v>117</v>
       </c>
-      <c r="B236" t="s">
+      <c r="D236" t="s">
         <v>118</v>
       </c>
-      <c r="C236" t="s">
+      <c r="E236" t="s">
         <v>119</v>
       </c>
-      <c r="D236" t="s">
+      <c r="F236" t="s">
         <v>120</v>
       </c>
-      <c r="E236" t="s">
-        <v>121</v>
-      </c>
-      <c r="F236" t="s">
-        <v>122</v>
-      </c>
       <c r="G236" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B237" t="s">
+        <v>121</v>
+      </c>
+      <c r="C237" t="s">
+        <v>122</v>
+      </c>
+      <c r="D237" t="s">
         <v>123</v>
-      </c>
-      <c r="C237" t="s">
-        <v>124</v>
-      </c>
-      <c r="D237" t="s">
-        <v>125</v>
       </c>
       <c r="E237">
         <v>227.98</v>
@@ -3129,16 +3129,16 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B238" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C238" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D238" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E238">
         <v>1558.42</v>
@@ -3152,16 +3152,16 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B239" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C239" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D239" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E239">
         <v>244.42</v>
@@ -3175,16 +3175,16 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B240" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C240" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D240" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E240">
         <v>0</v>
@@ -3198,10 +3198,10 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C241" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
